--- a/optimize/Axiory/covid/MA40/NIKKEI/M5/matrix_NIKKEI_M5_MA40_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA40/NIKKEI/M5/matrix_NIKKEI_M5_MA40_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="C2">
-        <v>1586</v>
+        <v>1596</v>
       </c>
       <c r="D2">
-        <v>3886</v>
+        <v>3896</v>
       </c>
       <c r="E2">
-        <v>6750</v>
+        <v>6760</v>
       </c>
       <c r="F2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G2">
-        <v>-2996</v>
+        <v>-2986</v>
       </c>
       <c r="H2">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="I2">
-        <v>-1614</v>
+        <v>-1604</v>
       </c>
       <c r="J2">
-        <v>-6034</v>
+        <v>-6024</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C3">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D3">
-        <v>4338</v>
+        <v>4348</v>
       </c>
       <c r="E3">
-        <v>-2282</v>
+        <v>-2272</v>
       </c>
       <c r="F3">
-        <v>3008</v>
+        <v>3018</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="I3">
-        <v>-1618</v>
+        <v>-1608</v>
       </c>
       <c r="J3">
-        <v>2168</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3124</v>
+        <v>3134</v>
       </c>
       <c r="C4">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="D4">
-        <v>6972</v>
+        <v>6982</v>
       </c>
       <c r="E4">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="F4">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G4">
-        <v>-4846</v>
+        <v>-4836</v>
       </c>
       <c r="H4">
-        <v>-1368</v>
+        <v>-1358</v>
       </c>
       <c r="I4">
-        <v>5856</v>
+        <v>5866</v>
       </c>
       <c r="J4">
-        <v>6742</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1564</v>
+        <v>1574</v>
       </c>
       <c r="C5">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="D5">
-        <v>6946</v>
+        <v>6956</v>
       </c>
       <c r="E5">
-        <v>6636</v>
+        <v>6646</v>
       </c>
       <c r="F5">
-        <v>4084</v>
+        <v>4094</v>
       </c>
       <c r="G5">
-        <v>2396</v>
+        <v>2406</v>
       </c>
       <c r="H5">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="I5">
-        <v>9578</v>
+        <v>9588</v>
       </c>
       <c r="J5">
-        <v>10646</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="C6">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D6">
-        <v>2988</v>
+        <v>2998</v>
       </c>
       <c r="E6">
-        <v>9866</v>
+        <v>9876</v>
       </c>
       <c r="F6">
-        <v>9310</v>
+        <v>9320</v>
       </c>
       <c r="G6">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="H6">
-        <v>5568</v>
+        <v>5578</v>
       </c>
       <c r="I6">
-        <v>10342</v>
+        <v>10352</v>
       </c>
       <c r="J6">
-        <v>11132</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C7">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D7">
-        <v>2120</v>
+        <v>2130</v>
       </c>
       <c r="E7">
-        <v>7684</v>
+        <v>7694</v>
       </c>
       <c r="F7">
-        <v>6158</v>
+        <v>6168</v>
       </c>
       <c r="G7">
-        <v>5702</v>
+        <v>5712</v>
       </c>
       <c r="H7">
-        <v>-1162</v>
+        <v>-1152</v>
       </c>
       <c r="I7">
-        <v>12222</v>
+        <v>12232</v>
       </c>
       <c r="J7">
-        <v>13608</v>
+        <v>13618</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>2326</v>
+        <v>2336</v>
       </c>
       <c r="C8">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E8">
-        <v>5766</v>
+        <v>5776</v>
       </c>
       <c r="F8">
-        <v>9750</v>
+        <v>9760</v>
       </c>
       <c r="G8">
-        <v>4310</v>
+        <v>4320</v>
       </c>
       <c r="H8">
-        <v>-308</v>
+        <v>-298</v>
       </c>
       <c r="I8">
-        <v>7598</v>
+        <v>7608</v>
       </c>
       <c r="J8">
-        <v>12352</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>2898</v>
+        <v>2908</v>
       </c>
       <c r="C9">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="D9">
-        <v>2024</v>
+        <v>2034</v>
       </c>
       <c r="E9">
-        <v>4946</v>
+        <v>4956</v>
       </c>
       <c r="F9">
-        <v>8852</v>
+        <v>8862</v>
       </c>
       <c r="G9">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="H9">
-        <v>3092</v>
+        <v>3102</v>
       </c>
       <c r="I9">
-        <v>7100</v>
+        <v>7110</v>
       </c>
       <c r="J9">
-        <v>8740</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>4588</v>
+        <v>4598</v>
       </c>
       <c r="C10">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="D10">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="E10">
-        <v>4756</v>
+        <v>4766</v>
       </c>
       <c r="F10">
-        <v>9010</v>
+        <v>9020</v>
       </c>
       <c r="G10">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H10">
-        <v>5174</v>
+        <v>5184</v>
       </c>
       <c r="I10">
-        <v>3798</v>
+        <v>3808</v>
       </c>
       <c r="J10">
-        <v>6126</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>3490</v>
+        <v>3500</v>
       </c>
       <c r="C11">
-        <v>3248</v>
+        <v>3258</v>
       </c>
       <c r="D11">
-        <v>3988</v>
+        <v>3998</v>
       </c>
       <c r="E11">
-        <v>7364</v>
+        <v>7374</v>
       </c>
       <c r="F11">
-        <v>7050</v>
+        <v>7060</v>
       </c>
       <c r="G11">
-        <v>-3116</v>
+        <v>-3106</v>
       </c>
       <c r="H11">
-        <v>3960</v>
+        <v>3970</v>
       </c>
       <c r="I11">
-        <v>-992</v>
+        <v>-982</v>
       </c>
       <c r="J11">
-        <v>7062</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>4538</v>
+        <v>4548</v>
       </c>
       <c r="C12">
-        <v>3184</v>
+        <v>3194</v>
       </c>
       <c r="D12">
-        <v>-2014</v>
+        <v>-2004</v>
       </c>
       <c r="E12">
-        <v>6502</v>
+        <v>6512</v>
       </c>
       <c r="F12">
-        <v>6610</v>
+        <v>6620</v>
       </c>
       <c r="G12">
-        <v>3682</v>
+        <v>3692</v>
       </c>
       <c r="H12">
-        <v>4524</v>
+        <v>4534</v>
       </c>
       <c r="I12">
-        <v>-5222</v>
+        <v>-5212</v>
       </c>
       <c r="J12">
-        <v>6170</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>4774</v>
+        <v>4784</v>
       </c>
       <c r="C13">
-        <v>2226</v>
+        <v>2236</v>
       </c>
       <c r="D13">
-        <v>-1522</v>
+        <v>-1512</v>
       </c>
       <c r="E13">
-        <v>7020</v>
+        <v>7030</v>
       </c>
       <c r="F13">
-        <v>5648</v>
+        <v>5658</v>
       </c>
       <c r="G13">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="H13">
-        <v>6714</v>
+        <v>6724</v>
       </c>
       <c r="I13">
-        <v>-3476</v>
+        <v>-3466</v>
       </c>
       <c r="J13">
-        <v>2914</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>3590</v>
+        <v>3600</v>
       </c>
       <c r="C14">
-        <v>2970</v>
+        <v>2980</v>
       </c>
       <c r="D14">
-        <v>-3006</v>
+        <v>-2996</v>
       </c>
       <c r="E14">
-        <v>5986</v>
+        <v>5996</v>
       </c>
       <c r="F14">
-        <v>9508</v>
+        <v>9518</v>
       </c>
       <c r="G14">
-        <v>6380</v>
+        <v>6390</v>
       </c>
       <c r="H14">
-        <v>6302</v>
+        <v>6312</v>
       </c>
       <c r="I14">
-        <v>-2904</v>
+        <v>-2894</v>
       </c>
       <c r="J14">
-        <v>5668</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>4736</v>
+        <v>4746</v>
       </c>
       <c r="C15">
-        <v>2552</v>
+        <v>2562</v>
       </c>
       <c r="D15">
-        <v>-2946</v>
+        <v>-2936</v>
       </c>
       <c r="E15">
-        <v>5728</v>
+        <v>5738</v>
       </c>
       <c r="F15">
-        <v>9126</v>
+        <v>9136</v>
       </c>
       <c r="G15">
-        <v>7020</v>
+        <v>7030</v>
       </c>
       <c r="H15">
-        <v>8876</v>
+        <v>8886</v>
       </c>
       <c r="I15">
-        <v>-1334</v>
+        <v>-1324</v>
       </c>
       <c r="J15">
-        <v>6246</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>4448</v>
+        <v>4458</v>
       </c>
       <c r="C16">
-        <v>3572</v>
+        <v>3582</v>
       </c>
       <c r="D16">
-        <v>-830</v>
+        <v>-820</v>
       </c>
       <c r="E16">
-        <v>6330</v>
+        <v>6340</v>
       </c>
       <c r="F16">
-        <v>10466</v>
+        <v>10476</v>
       </c>
       <c r="G16">
-        <v>7226</v>
+        <v>7236</v>
       </c>
       <c r="H16">
-        <v>8936</v>
+        <v>8946</v>
       </c>
       <c r="I16">
-        <v>-236</v>
+        <v>-226</v>
       </c>
       <c r="J16">
-        <v>7552</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>3536</v>
+        <v>3546</v>
       </c>
       <c r="C17">
-        <v>3098</v>
+        <v>3108</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>4344</v>
+        <v>4354</v>
       </c>
       <c r="F17">
-        <v>11050</v>
+        <v>11060</v>
       </c>
       <c r="G17">
-        <v>4788</v>
+        <v>4798</v>
       </c>
       <c r="H17">
-        <v>8910</v>
+        <v>8920</v>
       </c>
       <c r="I17">
-        <v>-260</v>
+        <v>-250</v>
       </c>
       <c r="J17">
-        <v>4294</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>2084</v>
+        <v>2094</v>
       </c>
       <c r="C18">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D18">
-        <v>-902</v>
+        <v>-892</v>
       </c>
       <c r="E18">
-        <v>4800</v>
+        <v>4810</v>
       </c>
       <c r="F18">
-        <v>11362</v>
+        <v>11372</v>
       </c>
       <c r="G18">
-        <v>5510</v>
+        <v>5520</v>
       </c>
       <c r="H18">
-        <v>10372</v>
+        <v>10382</v>
       </c>
       <c r="I18">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="J18">
-        <v>4578</v>
+        <v>4588</v>
       </c>
     </row>
   </sheetData>
